--- a/AMZ.001/Data/Config.xlsx
+++ b/AMZ.001/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarlosM\Documents\UiPath\AMZ.001\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B6518B-93D8-439F-AC14-AE072DD08066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCEAA7F-362D-47D1-AD62-05981A17F9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -204,10 +204,34 @@
     <t>https://www.amazon.com</t>
   </si>
   <si>
-    <t>Productos Filtrados Por Precio</t>
-  </si>
-  <si>
     <t>FilteredSheetName</t>
+  </si>
+  <si>
+    <t>Productos Filtrados</t>
+  </si>
+  <si>
+    <t>Sheet to save filterd products</t>
+  </si>
+  <si>
+    <t>Amazon url</t>
+  </si>
+  <si>
+    <t>Sheet to save products</t>
+  </si>
+  <si>
+    <t>Transactional file</t>
+  </si>
+  <si>
+    <t>Produnct list input file</t>
+  </si>
+  <si>
+    <t>Temp files path</t>
+  </si>
+  <si>
+    <t>Output files path</t>
+  </si>
+  <si>
+    <t>Input files path</t>
   </si>
 </sst>
 </file>
@@ -585,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -671,6 +695,9 @@
       <c r="B7" t="s">
         <v>45</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
@@ -679,6 +706,9 @@
       <c r="B8" t="s">
         <v>47</v>
       </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
@@ -687,6 +717,9 @@
       <c r="B9" t="s">
         <v>54</v>
       </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
@@ -695,6 +728,9 @@
       <c r="B10" t="s">
         <v>49</v>
       </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
@@ -703,6 +739,9 @@
       <c r="B11" t="s">
         <v>50</v>
       </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
@@ -711,6 +750,9 @@
       <c r="B12" t="s">
         <v>56</v>
       </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
@@ -719,13 +761,19 @@
       <c r="B13" t="s">
         <v>58</v>
       </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
-        <v>59</v>
+      <c r="C14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2887,7 +2935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/AMZ.001/Data/Config.xlsx
+++ b/AMZ.001/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarlosM\Documents\UiPath\AMZ.001\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CarlosM\Desktop\ChallengeEDSA\AMZ.001\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCEAA7F-362D-47D1-AD62-05981A17F9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE2DB19-9294-4825-8F70-DCB550D4D3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -207,9 +207,6 @@
     <t>FilteredSheetName</t>
   </si>
   <si>
-    <t>Productos Filtrados</t>
-  </si>
-  <si>
     <t>Sheet to save filterd products</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Input files path</t>
+  </si>
+  <si>
+    <t>Productos Filtrados Por Precio</t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -696,7 +696,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -707,7 +707,7 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -718,7 +718,7 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -729,7 +729,7 @@
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -740,7 +740,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -751,7 +751,7 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -762,7 +762,7 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -770,10 +770,10 @@
         <v>59</v>
       </c>
       <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2935,7 +2935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
